--- a/HBO/src/test/HomePageHBO.xlsx
+++ b/HBO/src/test/HomePageHBO.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob Dos\Documents\JAVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob Dos\Desktop\Robin\The-A-Team\HBO\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0BE22B8-1753-41F4-BBE4-7DF6546F11C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F0D00D-F419-449E-B578-71527990E86F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{368CD3CD-01AE-4E0A-9BFD-DD9293232EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -536,4 +537,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAED592-51CE-4C20-BAB7-C40B883CED39}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HBO/src/test/HomePageHBO.xlsx
+++ b/HBO/src/test/HomePageHBO.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob Dos\Documents\JAVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob Dos\Desktop\Robin\The-A-Team\HBO\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0BE22B8-1753-41F4-BBE4-7DF6546F11C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2469559-4204-4422-A34A-884895CA34A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{368CD3CD-01AE-4E0A-9BFD-DD9293232EF8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Home" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -448,9 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4956BE25-61BA-4D53-B630-837705E6475D}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -536,4 +535,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAED592-51CE-4C20-BAB7-C40B883CED39}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HBO/src/test/HomePageHBO.xlsx
+++ b/HBO/src/test/HomePageHBO.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob Dos\Desktop\Robin\The-A-Team\HBO\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F0D00D-F419-449E-B578-71527990E86F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2469559-4204-4422-A34A-884895CA34A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{368CD3CD-01AE-4E0A-9BFD-DD9293232EF8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Home" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -449,9 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4956BE25-61BA-4D53-B630-837705E6475D}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
